--- a/resources/data-imports/Affixes/stat_reduction.xlsx
+++ b/resources/data-imports/Affixes/stat_reduction.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="161">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t xml:space="preserve">resistance_reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affix_type</t>
   </si>
   <si>
     <t xml:space="preserve">Howling Torment</t>
@@ -605,10 +608,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AS58"/>
+  <dimension ref="A1:AT58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AI1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AM66" activeCellId="0" sqref="AM66"/>
+      <selection pane="topLeft" activeCell="AT2" activeCellId="0" sqref="AT2:AT58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -647,6 +650,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="43" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="12.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -785,16 +789,19 @@
       <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="AT1" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>0</v>
@@ -863,7 +870,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP2" s="1" t="n">
         <v>0</v>
@@ -876,6 +883,9 @@
       </c>
       <c r="AS2" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT2" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -883,10 +893,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L3" s="1" t="n">
         <v>0</v>
@@ -955,7 +965,7 @@
         <v>1367</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP3" s="1" t="n">
         <v>0</v>
@@ -968,6 +978,9 @@
       </c>
       <c r="AS3" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT3" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -975,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L4" s="1" t="n">
         <v>0</v>
@@ -1047,7 +1060,7 @@
         <v>1869</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP4" s="1" t="n">
         <v>0</v>
@@ -1060,6 +1073,9 @@
       </c>
       <c r="AS4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT4" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1067,10 +1083,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L5" s="1" t="n">
         <v>0</v>
@@ -1139,7 +1155,7 @@
         <v>2555</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP5" s="1" t="n">
         <v>0</v>
@@ -1152,6 +1168,9 @@
       </c>
       <c r="AS5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT5" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1159,10 +1178,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L6" s="1" t="n">
         <v>0</v>
@@ -1231,7 +1250,7 @@
         <v>3492</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP6" s="1" t="n">
         <v>0</v>
@@ -1244,6 +1263,9 @@
       </c>
       <c r="AS6" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT6" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1251,10 +1273,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L7" s="1" t="n">
         <v>0</v>
@@ -1323,7 +1345,7 @@
         <v>4773</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP7" s="1" t="n">
         <v>0</v>
@@ -1336,6 +1358,9 @@
       </c>
       <c r="AS7" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT7" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1343,10 +1368,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L8" s="1" t="n">
         <v>0</v>
@@ -1415,7 +1440,7 @@
         <v>6524</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP8" s="1" t="n">
         <v>0</v>
@@ -1428,6 +1453,9 @@
       </c>
       <c r="AS8" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT8" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1435,10 +1463,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L9" s="1" t="n">
         <v>0</v>
@@ -1507,7 +1535,7 @@
         <v>8918</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP9" s="1" t="n">
         <v>0</v>
@@ -1520,6 +1548,9 @@
       </c>
       <c r="AS9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT9" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1527,10 +1558,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="1" t="n">
         <v>0</v>
@@ -1599,7 +1630,7 @@
         <v>12200</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP10" s="1" t="n">
         <v>0</v>
@@ -1612,6 +1643,9 @@
       </c>
       <c r="AS10" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1619,10 +1653,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L11" s="1" t="n">
         <v>0</v>
@@ -1691,7 +1725,7 @@
         <v>16700</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP11" s="1" t="n">
         <v>0</v>
@@ -1704,6 +1738,9 @@
       </c>
       <c r="AS11" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT11" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1711,10 +1748,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" s="1" t="n">
         <v>0</v>
@@ -1783,7 +1820,7 @@
         <v>22800</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP12" s="1" t="n">
         <v>0</v>
@@ -1796,6 +1833,9 @@
       </c>
       <c r="AS12" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT12" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1803,10 +1843,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L13" s="1" t="n">
         <v>0</v>
@@ -1875,7 +1915,7 @@
         <v>31100</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP13" s="1" t="n">
         <v>0</v>
@@ -1888,6 +1928,9 @@
       </c>
       <c r="AS13" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT13" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1895,10 +1938,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L14" s="1" t="n">
         <v>0</v>
@@ -1967,7 +2010,7 @@
         <v>42600</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP14" s="1" t="n">
         <v>0</v>
@@ -1980,6 +2023,9 @@
       </c>
       <c r="AS14" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT14" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1987,10 +2033,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L15" s="1" t="n">
         <v>0</v>
@@ -2059,7 +2105,7 @@
         <v>58200</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP15" s="1" t="n">
         <v>0</v>
@@ -2072,6 +2118,9 @@
       </c>
       <c r="AS15" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT15" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2079,10 +2128,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L16" s="1" t="n">
         <v>0</v>
@@ -2151,7 +2200,7 @@
         <v>79500</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP16" s="1" t="n">
         <v>0</v>
@@ -2164,6 +2213,9 @@
       </c>
       <c r="AS16" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT16" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2171,10 +2223,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L17" s="1" t="n">
         <v>0</v>
@@ -2243,7 +2295,7 @@
         <v>108700</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP17" s="1" t="n">
         <v>0</v>
@@ -2256,6 +2308,9 @@
       </c>
       <c r="AS17" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT17" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2263,10 +2318,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L18" s="1" t="n">
         <v>0</v>
@@ -2335,7 +2390,7 @@
         <v>148600</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP18" s="1" t="n">
         <v>0</v>
@@ -2348,6 +2403,9 @@
       </c>
       <c r="AS18" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT18" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,10 +2413,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L19" s="1" t="n">
         <v>0</v>
@@ -2427,7 +2485,7 @@
         <v>203100</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP19" s="1" t="n">
         <v>0</v>
@@ -2440,6 +2498,9 @@
       </c>
       <c r="AS19" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT19" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2447,10 +2508,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L20" s="1" t="n">
         <v>0</v>
@@ -2519,7 +2580,7 @@
         <v>277700</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP20" s="1" t="n">
         <v>0</v>
@@ -2532,6 +2593,9 @@
       </c>
       <c r="AS20" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT20" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2539,10 +2603,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L21" s="1" t="n">
         <v>0</v>
@@ -2611,7 +2675,7 @@
         <v>379600</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP21" s="1" t="n">
         <v>0</v>
@@ -2624,6 +2688,9 @@
       </c>
       <c r="AS21" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT21" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2631,10 +2698,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L22" s="1" t="n">
         <v>0</v>
@@ -2703,7 +2770,7 @@
         <v>518800</v>
       </c>
       <c r="AO22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP22" s="1" t="n">
         <v>0</v>
@@ -2716,6 +2783,9 @@
       </c>
       <c r="AS22" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT22" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2723,10 +2793,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L23" s="1" t="n">
         <v>0</v>
@@ -2795,7 +2865,7 @@
         <v>709200</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP23" s="1" t="n">
         <v>0</v>
@@ -2808,6 +2878,9 @@
       </c>
       <c r="AS23" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT23" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2815,10 +2888,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L24" s="1" t="n">
         <v>0</v>
@@ -2887,7 +2960,7 @@
         <v>969400</v>
       </c>
       <c r="AO24" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP24" s="1" t="n">
         <v>0</v>
@@ -2900,6 +2973,9 @@
       </c>
       <c r="AS24" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT24" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2907,10 +2983,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L25" s="1" t="n">
         <v>0</v>
@@ -2979,7 +3055,7 @@
         <v>1325200</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP25" s="1" t="n">
         <v>0</v>
@@ -2992,6 +3068,9 @@
       </c>
       <c r="AS25" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT25" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2999,10 +3078,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L26" s="1" t="n">
         <v>0</v>
@@ -3071,7 +3150,7 @@
         <v>1811400</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP26" s="1" t="n">
         <v>0</v>
@@ -3084,6 +3163,9 @@
       </c>
       <c r="AS26" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT26" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3091,10 +3173,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L27" s="1" t="n">
         <v>0</v>
@@ -3163,7 +3245,7 @@
         <v>2476200</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP27" s="1" t="n">
         <v>0</v>
@@ -3176,6 +3258,9 @@
       </c>
       <c r="AS27" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT27" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3183,10 +3268,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L28" s="1" t="n">
         <v>0</v>
@@ -3255,7 +3340,7 @@
         <v>3384800</v>
       </c>
       <c r="AO28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP28" s="1" t="n">
         <v>0</v>
@@ -3268,6 +3353,9 @@
       </c>
       <c r="AS28" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT28" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3275,10 +3363,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L29" s="1" t="n">
         <v>0</v>
@@ -3347,7 +3435,7 @@
         <v>4626800</v>
       </c>
       <c r="AO29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP29" s="1" t="n">
         <v>0</v>
@@ -3360,6 +3448,9 @@
       </c>
       <c r="AS29" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT29" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3367,10 +3458,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L30" s="1" t="n">
         <v>0</v>
@@ -3439,7 +3530,7 @@
         <v>6324600</v>
       </c>
       <c r="AO30" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP30" s="1" t="n">
         <v>0</v>
@@ -3452,6 +3543,9 @@
       </c>
       <c r="AS30" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT30" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3459,10 +3553,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L31" s="1" t="n">
         <v>0</v>
@@ -3531,7 +3625,7 @@
         <v>11603700</v>
       </c>
       <c r="AO31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP31" s="1" t="n">
         <v>0</v>
@@ -3544,6 +3638,9 @@
       </c>
       <c r="AS31" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT31" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3551,10 +3648,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L32" s="1" t="n">
         <v>0</v>
@@ -3623,7 +3720,7 @@
         <v>16023300</v>
       </c>
       <c r="AO32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP32" s="1" t="n">
         <v>0</v>
@@ -3636,6 +3733,9 @@
       </c>
       <c r="AS32" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT32" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3643,10 +3743,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L33" s="1" t="n">
         <v>0</v>
@@ -3715,7 +3815,7 @@
         <v>22126400</v>
       </c>
       <c r="AO33" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP33" s="1" t="n">
         <v>0</v>
@@ -3728,6 +3828,9 @@
       </c>
       <c r="AS33" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT33" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3735,10 +3838,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L34" s="1" t="n">
         <v>0</v>
@@ -3807,7 +3910,7 @@
         <v>30554100</v>
       </c>
       <c r="AO34" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP34" s="1" t="n">
         <v>0</v>
@@ -3820,6 +3923,9 @@
       </c>
       <c r="AS34" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT34" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3827,10 +3933,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L35" s="1" t="n">
         <v>0</v>
@@ -3899,7 +4005,7 @@
         <v>42191800</v>
       </c>
       <c r="AO35" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP35" s="1" t="n">
         <v>0</v>
@@ -3912,6 +4018,9 @@
       </c>
       <c r="AS35" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT35" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3919,10 +4028,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L36" s="1" t="n">
         <v>0</v>
@@ -3991,7 +4100,7 @@
         <v>58262200</v>
       </c>
       <c r="AO36" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP36" s="1" t="n">
         <v>0</v>
@@ -4004,6 +4113,9 @@
       </c>
       <c r="AS36" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT36" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4011,10 +4123,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L37" s="1" t="n">
         <v>0</v>
@@ -4083,7 +4195,7 @@
         <v>80453600</v>
       </c>
       <c r="AO37" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP37" s="1" t="n">
         <v>0</v>
@@ -4096,6 +4208,9 @@
       </c>
       <c r="AS37" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT37" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4103,10 +4218,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L38" s="1" t="n">
         <v>0</v>
@@ -4175,7 +4290,7 @@
         <v>111097300</v>
       </c>
       <c r="AO38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP38" s="1" t="n">
         <v>0</v>
@@ -4188,6 +4303,9 @@
       </c>
       <c r="AS38" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT38" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4195,10 +4313,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L39" s="1" t="n">
         <v>0</v>
@@ -4267,7 +4385,7 @@
         <v>153413000</v>
       </c>
       <c r="AO39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP39" s="1" t="n">
         <v>0</v>
@@ -4280,6 +4398,9 @@
       </c>
       <c r="AS39" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT39" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4287,10 +4408,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L40" s="1" t="n">
         <v>0</v>
@@ -4359,7 +4480,7 @@
         <v>211846100</v>
       </c>
       <c r="AO40" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP40" s="1" t="n">
         <v>0</v>
@@ -4372,6 +4493,9 @@
       </c>
       <c r="AS40" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT40" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4379,10 +4503,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L41" s="1" t="n">
         <v>0</v>
@@ -4451,7 +4575,7 @@
         <v>292535800</v>
       </c>
       <c r="AO41" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP41" s="1" t="n">
         <v>0</v>
@@ -4464,6 +4588,9 @@
       </c>
       <c r="AS41" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT41" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4471,10 +4598,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L42" s="1" t="n">
         <v>0</v>
@@ -4543,7 +4670,7 @@
         <v>403959100</v>
       </c>
       <c r="AO42" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP42" s="1" t="n">
         <v>0</v>
@@ -4556,6 +4683,9 @@
       </c>
       <c r="AS42" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT42" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4563,10 +4693,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L43" s="1" t="n">
         <v>0</v>
@@ -4635,7 +4765,7 @@
         <v>557822300</v>
       </c>
       <c r="AO43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP43" s="1" t="n">
         <v>0</v>
@@ -4648,6 +4778,9 @@
       </c>
       <c r="AS43" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT43" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4655,10 +4788,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L44" s="1" t="n">
         <v>0</v>
@@ -4727,7 +4860,7 @@
         <v>770290100</v>
       </c>
       <c r="AO44" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP44" s="1" t="n">
         <v>0</v>
@@ -4740,6 +4873,9 @@
       </c>
       <c r="AS44" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT44" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4747,10 +4883,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L45" s="1" t="n">
         <v>0</v>
@@ -4819,7 +4955,7 @@
         <v>1063684200</v>
       </c>
       <c r="AO45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP45" s="1" t="n">
         <v>0</v>
@@ -4832,6 +4968,9 @@
       </c>
       <c r="AS45" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT45" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4839,10 +4978,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L46" s="1" t="n">
         <v>0</v>
@@ -4911,7 +5050,7 @@
         <v>1468828700</v>
       </c>
       <c r="AO46" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP46" s="1" t="n">
         <v>0</v>
@@ -4924,6 +5063,9 @@
       </c>
       <c r="AS46" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT46" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4931,10 +5073,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L47" s="1" t="n">
         <v>0</v>
@@ -5003,7 +5145,7 @@
         <v>2028287900</v>
       </c>
       <c r="AO47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP47" s="1" t="n">
         <v>0</v>
@@ -5016,6 +5158,9 @@
       </c>
       <c r="AS47" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT47" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5023,10 +5168,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L48" s="1" t="n">
         <v>0</v>
@@ -5095,7 +5240,7 @@
         <v>2800838300</v>
       </c>
       <c r="AO48" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP48" s="1" t="n">
         <v>0</v>
@@ -5108,6 +5253,9 @@
       </c>
       <c r="AS48" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT48" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5115,10 +5263,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L49" s="1" t="n">
         <v>0</v>
@@ -5187,7 +5335,7 @@
         <v>3867643800</v>
       </c>
       <c r="AO49" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP49" s="1" t="n">
         <v>0</v>
@@ -5200,6 +5348,9 @@
       </c>
       <c r="AS49" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT49" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5207,10 +5358,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L50" s="1" t="n">
         <v>0</v>
@@ -5279,7 +5430,7 @@
         <v>5340782600</v>
       </c>
       <c r="AO50" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP50" s="1" t="n">
         <v>0</v>
@@ -5292,6 +5443,9 @@
       </c>
       <c r="AS50" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT50" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5299,10 +5453,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L51" s="1" t="n">
         <v>0</v>
@@ -5371,7 +5525,7 @@
         <v>7375022300</v>
       </c>
       <c r="AO51" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP51" s="1" t="n">
         <v>0</v>
@@ -5384,6 +5538,9 @@
       </c>
       <c r="AS51" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT51" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5391,10 +5548,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L52" s="1" t="n">
         <v>0</v>
@@ -5463,7 +5620,7 @@
         <v>10184079300</v>
       </c>
       <c r="AO52" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP52" s="1" t="n">
         <v>0</v>
@@ -5476,6 +5633,9 @@
       </c>
       <c r="AS52" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT52" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5483,10 +5643,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L53" s="1" t="n">
         <v>0</v>
@@ -5555,7 +5715,7 @@
         <v>14063072200</v>
       </c>
       <c r="AO53" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP53" s="1" t="n">
         <v>0</v>
@@ -5568,6 +5728,9 @@
       </c>
       <c r="AS53" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT53" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5575,10 +5738,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L54" s="1" t="n">
         <v>0</v>
@@ -5647,7 +5810,7 @@
         <v>19419526800</v>
       </c>
       <c r="AO54" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP54" s="1" t="n">
         <v>0</v>
@@ -5660,6 +5823,9 @@
       </c>
       <c r="AS54" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT54" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5667,10 +5833,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L55" s="1" t="n">
         <v>0</v>
@@ -5739,7 +5905,7 @@
         <v>26816190300</v>
       </c>
       <c r="AO55" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP55" s="1" t="n">
         <v>0</v>
@@ -5752,6 +5918,9 @@
       </c>
       <c r="AS55" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT55" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5759,10 +5928,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L56" s="1" t="n">
         <v>0</v>
@@ -5831,7 +6000,7 @@
         <v>37030153700</v>
       </c>
       <c r="AO56" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP56" s="1" t="n">
         <v>0</v>
@@ -5844,6 +6013,9 @@
       </c>
       <c r="AS56" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT56" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5851,10 +6023,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L57" s="1" t="n">
         <v>0</v>
@@ -5923,7 +6095,7 @@
         <v>37400455237</v>
       </c>
       <c r="AO57" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP57" s="1" t="n">
         <v>0</v>
@@ -5936,6 +6108,9 @@
       </c>
       <c r="AS57" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT57" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5943,10 +6118,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L58" s="1" t="n">
         <v>0</v>
@@ -6015,7 +6190,7 @@
         <v>40000000000</v>
       </c>
       <c r="AO58" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP58" s="1" t="n">
         <v>0</v>
@@ -6028,6 +6203,9 @@
       </c>
       <c r="AS58" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT58" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/Affixes/stat_reduction.xlsx
+++ b/resources/data-imports/Affixes/stat_reduction.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Affixes" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Affixes" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -587,7 +587,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -603,6 +603,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -610,15 +716,15 @@
   </sheetPr>
   <dimension ref="A1:AT58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AI1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AT2" activeCellId="0" sqref="AT2:AT58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T58" activeCellId="0" sqref="T58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="41.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="41.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14"/>
@@ -650,7 +756,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="43" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="12.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="12.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -789,7 +895,7 @@
       <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -884,7 +990,7 @@
       <c r="AS2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT2" s="0" t="n">
+      <c r="AT2" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -979,7 +1085,7 @@
       <c r="AS3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT3" s="0" t="n">
+      <c r="AT3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1074,7 +1180,7 @@
       <c r="AS4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT4" s="0" t="n">
+      <c r="AT4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1169,7 +1275,7 @@
       <c r="AS5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT5" s="0" t="n">
+      <c r="AT5" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1264,7 +1370,7 @@
       <c r="AS6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT6" s="0" t="n">
+      <c r="AT6" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1359,7 +1465,7 @@
       <c r="AS7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT7" s="0" t="n">
+      <c r="AT7" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1454,7 +1560,7 @@
       <c r="AS8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT8" s="0" t="n">
+      <c r="AT8" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1549,7 +1655,7 @@
       <c r="AS9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="0" t="n">
+      <c r="AT9" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1644,7 +1750,7 @@
       <c r="AS10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT10" s="0" t="n">
+      <c r="AT10" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1739,7 +1845,7 @@
       <c r="AS11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT11" s="0" t="n">
+      <c r="AT11" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1834,7 +1940,7 @@
       <c r="AS12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT12" s="0" t="n">
+      <c r="AT12" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1929,7 +2035,7 @@
       <c r="AS13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT13" s="0" t="n">
+      <c r="AT13" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2024,7 +2130,7 @@
       <c r="AS14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT14" s="0" t="n">
+      <c r="AT14" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2119,7 +2225,7 @@
       <c r="AS15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT15" s="0" t="n">
+      <c r="AT15" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2214,7 +2320,7 @@
       <c r="AS16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT16" s="0" t="n">
+      <c r="AT16" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2309,7 +2415,7 @@
       <c r="AS17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT17" s="0" t="n">
+      <c r="AT17" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2404,7 +2510,7 @@
       <c r="AS18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT18" s="0" t="n">
+      <c r="AT18" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2499,7 +2605,7 @@
       <c r="AS19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT19" s="0" t="n">
+      <c r="AT19" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2594,7 +2700,7 @@
       <c r="AS20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT20" s="0" t="n">
+      <c r="AT20" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2689,7 +2795,7 @@
       <c r="AS21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="0" t="n">
+      <c r="AT21" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2784,7 +2890,7 @@
       <c r="AS22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT22" s="0" t="n">
+      <c r="AT22" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2879,7 +2985,7 @@
       <c r="AS23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT23" s="0" t="n">
+      <c r="AT23" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2974,7 +3080,7 @@
       <c r="AS24" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT24" s="0" t="n">
+      <c r="AT24" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3069,7 +3175,7 @@
       <c r="AS25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT25" s="0" t="n">
+      <c r="AT25" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3164,11 +3270,11 @@
       <c r="AS26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT26" s="0" t="n">
+      <c r="AT26" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
@@ -3259,7 +3365,7 @@
       <c r="AS27" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT27" s="0" t="n">
+      <c r="AT27" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3354,11 +3460,11 @@
       <c r="AS28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT28" s="0" t="n">
+      <c r="AT28" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
@@ -3449,7 +3555,7 @@
       <c r="AS29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT29" s="0" t="n">
+      <c r="AT29" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3544,7 +3650,7 @@
       <c r="AS30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT30" s="0" t="n">
+      <c r="AT30" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3639,11 +3745,11 @@
       <c r="AS31" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT31" s="0" t="n">
+      <c r="AT31" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
@@ -3734,7 +3840,7 @@
       <c r="AS32" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT32" s="0" t="n">
+      <c r="AT32" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3829,7 +3935,7 @@
       <c r="AS33" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT33" s="0" t="n">
+      <c r="AT33" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3924,7 +4030,7 @@
       <c r="AS34" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT34" s="0" t="n">
+      <c r="AT34" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4019,7 +4125,7 @@
       <c r="AS35" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT35" s="0" t="n">
+      <c r="AT35" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4114,7 +4220,7 @@
       <c r="AS36" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT36" s="0" t="n">
+      <c r="AT36" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4209,7 +4315,7 @@
       <c r="AS37" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT37" s="0" t="n">
+      <c r="AT37" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4304,7 +4410,7 @@
       <c r="AS38" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT38" s="0" t="n">
+      <c r="AT38" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4399,7 +4505,7 @@
       <c r="AS39" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT39" s="0" t="n">
+      <c r="AT39" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4494,7 +4600,7 @@
       <c r="AS40" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT40" s="0" t="n">
+      <c r="AT40" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4589,7 +4695,7 @@
       <c r="AS41" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT41" s="0" t="n">
+      <c r="AT41" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4684,7 +4790,7 @@
       <c r="AS42" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT42" s="0" t="n">
+      <c r="AT42" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4779,7 +4885,7 @@
       <c r="AS43" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT43" s="0" t="n">
+      <c r="AT43" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4874,7 +4980,7 @@
       <c r="AS44" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT44" s="0" t="n">
+      <c r="AT44" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4969,7 +5075,7 @@
       <c r="AS45" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT45" s="0" t="n">
+      <c r="AT45" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5064,7 +5170,7 @@
       <c r="AS46" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT46" s="0" t="n">
+      <c r="AT46" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5159,7 +5265,7 @@
       <c r="AS47" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT47" s="0" t="n">
+      <c r="AT47" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5254,7 +5360,7 @@
       <c r="AS48" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT48" s="0" t="n">
+      <c r="AT48" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5349,7 +5455,7 @@
       <c r="AS49" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT49" s="0" t="n">
+      <c r="AT49" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5444,7 +5550,7 @@
       <c r="AS50" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT50" s="0" t="n">
+      <c r="AT50" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5539,7 +5645,7 @@
       <c r="AS51" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT51" s="0" t="n">
+      <c r="AT51" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5634,7 +5740,7 @@
       <c r="AS52" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT52" s="0" t="n">
+      <c r="AT52" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5729,7 +5835,7 @@
       <c r="AS53" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT53" s="0" t="n">
+      <c r="AT53" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5824,7 +5930,7 @@
       <c r="AS54" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT54" s="0" t="n">
+      <c r="AT54" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5919,7 +6025,7 @@
       <c r="AS55" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT55" s="0" t="n">
+      <c r="AT55" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6014,7 +6120,7 @@
       <c r="AS56" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT56" s="0" t="n">
+      <c r="AT56" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6109,7 +6215,7 @@
       <c r="AS57" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT57" s="0" t="n">
+      <c r="AT57" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6130,25 +6236,25 @@
         <v>0</v>
       </c>
       <c r="N58" s="1" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O58" s="1" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="Q58" s="1" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="R58" s="1" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="T58" s="1" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="U58" s="1" t="n">
         <v>1</v>
@@ -6204,7 +6310,7 @@
       <c r="AS58" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT58" s="0" t="n">
+      <c r="AT58" s="1" t="n">
         <v>2</v>
       </c>
     </row>
